--- a/statistics/performance_table.xlsx
+++ b/statistics/performance_table.xlsx
@@ -451,12 +451,348 @@
         </r>
       </text>
     </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Такой loss был после 50000 итераций, а вначале он вычислялся как loss_uv + loss_f</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+В adam экспоненциальное затухание: lr=0.999*lr каждые 100 итераций. Lbfgs обучается уже с постоянным lr=0.0001</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lbfgs в этом эксперименте почти сразу завершился</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lbfgs в этом эксперименте почти сразу завершился</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lbfgs в этом эксперименте почти сразу завершился</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lbfgs в этом эксперименте почти сразу завершился</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lbfgs в этом эксперименте почти сразу завершился</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
   <si>
     <t>функция активации</t>
   </si>
@@ -662,12 +998,82 @@
   <si>
     <t>ReLoBRaLo</t>
   </si>
+  <si>
+    <t>exp17</t>
+  </si>
+  <si>
+    <t>exp18</t>
+  </si>
+  <si>
+    <t>300000*adam+lbfgs</t>
+  </si>
+  <si>
+    <t>GPU(V100)</t>
+  </si>
+  <si>
+    <t>exp19</t>
+  </si>
+  <si>
+    <t>exp20</t>
+  </si>
+  <si>
+    <t>exp21</t>
+  </si>
+  <si>
+    <t>exp22</t>
+  </si>
+  <si>
+    <t>exp23</t>
+  </si>
+  <si>
+    <t>1 и 2</t>
+  </si>
+  <si>
+    <t>loss_uv + loss_f + loss_fl + loss_sl</t>
+  </si>
+  <si>
+    <r>
+      <t>mse</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +1123,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -738,7 +1157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -784,11 +1203,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -817,6 +1245,20 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +1297,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -868,14 +1310,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0">
+              <a:rPr lang="ru-RU" sz="1500" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>график 2</a:t>
+              <a:t>График</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" baseline="0">
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1500" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -887,8 +1345,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.45119072730408488"/>
-          <c:y val="0.93563744531933524"/>
+          <c:x val="0.46951133505458353"/>
+          <c:y val="0.92378559346748335"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -904,7 +1362,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -930,7 +1388,7 @@
           <c:x val="9.7106273630057721E-2"/>
           <c:y val="2.6431222334285173E-2"/>
           <c:w val="0.87439500320249997"/>
-          <c:h val="0.57759650043744537"/>
+          <c:h val="0.77907798191892685"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -940,6 +1398,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>iter=300000</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -952,9 +1413,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>без коэффициентов</c:v>
                 </c:pt>
@@ -965,18 +1426,12 @@
                   <c:v>3 коэффициента, SoftAdapt</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6 коэффициентов, SoftAdapt</c:v>
+                  <c:v>3 случайных коэффициента</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3 случайных коэффициента</c:v>
+                  <c:v>3 коэффициента SoftAdapt с памятью</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3 коэффициента SoftAdapt с памятью</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2 коэффициента SoftAdapt c учётом порядка</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3 коэффициента, ReLoBRaLo</c:v>
                 </c:pt>
               </c:strCache>
@@ -984,33 +1439,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$2:$Z$9</c:f>
+              <c:f>Sheet1!$AA$11:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.686E-2</c:v>
+                  <c:v>0.49790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42979999999999996</c:v>
+                  <c:v>6.2600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2899999999999998</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.36</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85450000000000004</c:v>
+                  <c:v>3.2679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.056</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1500000000000002E-2</c:v>
+                  <c:v>0.23849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,11 +1474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="287466984"/>
-        <c:axId val="287463456"/>
+        <c:axId val="309064016"/>
+        <c:axId val="309064400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287466984"/>
+        <c:axId val="309064016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1519,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1082,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287463456"/>
+        <c:crossAx val="309064400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,10 +1540,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287463456"/>
+        <c:axId val="309064400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9.5"/>
+          <c:max val="31.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1120,7 +1569,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1131,40 +1580,53 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>mse</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>q</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
                   <a:t> , 10</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>-3</a:t>
+                  <a:t>-5</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> </a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1172,8 +1634,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0178115416943693E-2"/>
-              <c:y val="0.23261918926800818"/>
+              <c:x val="0"/>
+              <c:y val="0.37187844852726748"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1189,7 +1651,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1235,11 +1697,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287466984"/>
+        <c:crossAx val="309064016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="3"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1286,965 +1748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>график 3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45322635038747366"/>
-          <c:y val="0.88888899880841732"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7106273630057721E-2"/>
-          <c:y val="2.6431222334285173E-2"/>
-          <c:w val="0.87439500320249997"/>
-          <c:h val="0.7374689676561238"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$B$4,Sheet1!$B$6:$B$7,Sheet1!$B$9)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3 коэффициента, SoftAdapt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3 случайных коэффициента</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 коэффициента SoftAdapt с памятью</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3 коэффициента, ReLoBRaLo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$Z$2:$Z$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$Z$4,Sheet1!$Z$6:$Z$7,Sheet1!$Z$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.2899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85450000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1500000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:axId val="287464240"/>
-        <c:axId val="287465808"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="287464240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="287465808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="287465808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>mse</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>q</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> , 10</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="30000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>-3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.5782074515017713E-2"/>
-              <c:y val="0.34231117569982611"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="oval"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="287464240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>график </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.47154695813797232"/>
-          <c:y val="0.90459375143754128"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7106273630057721E-2"/>
-          <c:y val="2.6431222334285173E-2"/>
-          <c:w val="0.87439500320249997"/>
-          <c:h val="0.7374689676561238"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$B$2:$B$3,Sheet1!$B$8)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>без коэффициентов</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 коэффициента, SoftAdapt</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2 коэффициента SoftAdapt c учётом порядка</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$Z$2:$Z$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$Z$2:$Z$3,Sheet1!$Z$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.686E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42979999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.056</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:axId val="298672992"/>
-        <c:axId val="298673384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="298672992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="298673384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="298673384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.2000000000000002"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>mse</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>q</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> , 10</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="30000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>-3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.0356230833887385E-3"/>
-              <c:y val="0.32447108729507085"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="oval"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="298672992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2800,1052 +2304,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3859,70 +2331,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>733426</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4220,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,7 +2658,8 @@
     <col min="24" max="24" width="8.42578125" style="18" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="3"/>
     <col min="26" max="26" width="10.28515625" style="3" customWidth="1"/>
-    <col min="27" max="36" width="9.140625" style="3"/>
+    <col min="27" max="27" width="9.85546875" style="23" customWidth="1"/>
+    <col min="28" max="36" width="9.140625" style="3"/>
     <col min="37" max="37" width="11.28515625" style="3" customWidth="1"/>
     <col min="38" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -4331,6 +2740,9 @@
       <c r="Z1" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AA1" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="AK1" s="6" t="s">
         <v>49</v>
       </c>
@@ -4481,7 +2893,7 @@
         <v>9.5699999999999993E-2</v>
       </c>
       <c r="Z3" s="23">
-        <f t="shared" ref="Z3:Z9" si="0">S3*1000</f>
+        <f t="shared" ref="Z3:Z16" si="0">S3*1000</f>
         <v>0.42979999999999996</v>
       </c>
     </row>
@@ -4936,63 +3348,537 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L10" s="1"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="R10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="Z10" s="23"/>
+      <c r="A10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="25">
+        <v>100</v>
+      </c>
+      <c r="I10" s="25">
+        <v>50</v>
+      </c>
+      <c r="J10" s="25">
+        <v>200</v>
+      </c>
+      <c r="K10" s="25">
+        <v>30000</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="27">
+        <v>8328</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>9.3170000000000006E-3</v>
+      </c>
+      <c r="R10" s="28">
+        <v>8.9250000000000006E-3</v>
+      </c>
+      <c r="S10" s="28">
+        <v>1.465E-2</v>
+      </c>
+      <c r="T10" s="28">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="U10" s="28">
+        <v>3.5299999999999997E-5</v>
+      </c>
+      <c r="V10" s="28">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="W10" s="28">
+        <v>8.4699999999999999E-5</v>
+      </c>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="31">
+        <f t="shared" si="0"/>
+        <v>14.65</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L11" s="1"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="R11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>50</v>
+      </c>
+      <c r="J11" s="8">
+        <v>200</v>
+      </c>
+      <c r="K11" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="10">
+        <v>12881</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="S11" s="12">
+        <v>4.9790000000000001E-6</v>
+      </c>
+      <c r="T11" s="12">
+        <v>7.5100000000000007E-9</v>
+      </c>
+      <c r="U11" s="12">
+        <v>7.3589999999999999E-9</v>
+      </c>
+      <c r="V11" s="12">
+        <v>4.016E-4</v>
+      </c>
+      <c r="W11" s="12">
+        <v>5.1900000000000004E-4</v>
+      </c>
       <c r="Z11" s="23"/>
+      <c r="AA11" s="23">
+        <f>S11*100000</f>
+        <v>0.49790000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L12" s="1"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="R12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="8">
+        <v>50</v>
+      </c>
+      <c r="J12" s="8">
+        <v>200</v>
+      </c>
+      <c r="K12" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="10">
+        <v>13447</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="S12" s="12">
+        <v>6.2600000000000004E-5</v>
+      </c>
+      <c r="T12" s="12">
+        <v>2.4500000000000001E-8</v>
+      </c>
+      <c r="U12" s="12">
+        <v>2.1480000000000001E-8</v>
+      </c>
+      <c r="V12" s="12">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1.21E-2</v>
+      </c>
       <c r="Z12" s="23"/>
+      <c r="AA12" s="23">
+        <f t="shared" ref="AA12:AA16" si="1">S12*100000</f>
+        <v>6.2600000000000007</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L13" s="1"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="R13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8">
+        <v>50</v>
+      </c>
+      <c r="J13" s="8">
+        <v>200</v>
+      </c>
+      <c r="K13" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="10">
+        <v>14516</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1.155E-2</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1.15E-2</v>
+      </c>
+      <c r="S13" s="12">
+        <v>2.72E-4</v>
+      </c>
+      <c r="T13" s="12">
+        <v>7.7470000000000005E-8</v>
+      </c>
+      <c r="U13" s="12">
+        <v>7.7099999999999996E-8</v>
+      </c>
+      <c r="V13" s="12">
+        <v>4.53E-2</v>
+      </c>
+      <c r="W13" s="12">
+        <v>5.3199999999999997E-2</v>
+      </c>
       <c r="Z13" s="23"/>
+      <c r="AA13" s="23">
+        <f t="shared" si="1"/>
+        <v>27.2</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L14" s="1"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="R14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8">
+        <v>50</v>
+      </c>
+      <c r="J14" s="8">
+        <v>200</v>
+      </c>
+      <c r="K14" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="10">
+        <v>13870</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1.158E-2</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1.158E-2</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1.44E-4</v>
+      </c>
+      <c r="T14" s="12">
+        <v>4.957E-8</v>
+      </c>
+      <c r="U14" s="12">
+        <v>5.0780000000000002E-8</v>
+      </c>
+      <c r="V14" s="12">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1.6799999999999999E-2</v>
+      </c>
       <c r="Z14" s="23"/>
+      <c r="AA14" s="23">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L15" s="1"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="8">
+        <v>50</v>
+      </c>
+      <c r="J15" s="8">
+        <v>200</v>
+      </c>
+      <c r="K15" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="10">
+        <v>14328</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="S15" s="12">
+        <v>3.2679999999999999E-5</v>
+      </c>
+      <c r="T15" s="12">
+        <v>1.606E-8</v>
+      </c>
+      <c r="U15" s="12">
+        <v>1.3799999999999999E-8</v>
+      </c>
+      <c r="V15" s="12">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="W15" s="12">
+        <v>4.3559999999999996E-3</v>
+      </c>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23">
+        <f t="shared" si="1"/>
+        <v>3.2679999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L16" s="1"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="R16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="8">
+        <v>100</v>
+      </c>
+      <c r="I16" s="8">
+        <v>50</v>
+      </c>
+      <c r="J16" s="8">
+        <v>200</v>
+      </c>
+      <c r="K16" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="10">
+        <v>14424</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="S16" s="12">
+        <v>2.385E-6</v>
+      </c>
+      <c r="T16" s="12">
+        <v>5.229E-9</v>
+      </c>
+      <c r="U16" s="12">
+        <v>4.3899999999999999E-9</v>
+      </c>
+      <c r="V16" s="12">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="W16" s="12">
+        <v>2.2169999999999999E-4</v>
+      </c>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23">
+        <f t="shared" si="1"/>
+        <v>0.23849999999999999</v>
+      </c>
     </row>
     <row r="17" spans="7:21" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
